--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>FirstName</t>
   </si>
@@ -91,6 +91,30 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>test@regressiontestcase.com</t>
+  </si>
+  <si>
+    <t>QA R&amp;D Lab</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Andheri</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>regression101</t>
+  </si>
+  <si>
+    <t>testcase0102</t>
   </si>
 </sst>
 </file>
@@ -487,19 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
@@ -584,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="1">
-        <v>5600103</v>
+        <v>560103</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
@@ -597,14 +621,59 @@
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9876543211</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1">
+        <v>420001</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="UserRegData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -513,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,28 +673,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>